--- a/public/downloads/NON-TESTED-FP-CLASSIC-RAW.xlsx
+++ b/public/downloads/NON-TESTED-FP-CLASSIC-RAW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 NEW RECORDS TEMPLATE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="919" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D624A929-09DA-4C6A-8481-AF21A71F5D6D}"/>
+  <xr:revisionPtr revIDLastSave="924" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B22B111-E070-4609-9A45-8DF9A265FBE5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="271">
   <si>
     <t>Weight</t>
   </si>
@@ -845,6 +845,15 @@
   </si>
   <si>
     <t xml:space="preserve">COVENTRY </t>
+  </si>
+  <si>
+    <t>27/08/203</t>
+  </si>
+  <si>
+    <t>WOMEN OF IRO</t>
+  </si>
+  <si>
+    <t>133.0KG</t>
   </si>
 </sst>
 </file>
@@ -8310,13 +8319,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
   <dimension ref="A1:G478"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" zoomScale="117" workbookViewId="0">
-      <selection activeCell="D168" sqref="D168"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="117" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="7" width="10.6640625" style="9"/>
+    <col min="4" max="4" width="18.1640625" style="9" customWidth="1"/>
+    <col min="5" max="7" width="10.6640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -8593,16 +8603,16 @@
         <v>7</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E28" s="16">
-        <v>43798</v>
+        <v>213</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>169</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -18126,7 +18136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22797B1-D157-4F23-BC29-DEA3C11849AE}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
